--- a/STMA_主备同步测试_Status_2017July04.xlsx
+++ b/STMA_主备同步测试_Status_2017July04.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="432">
   <si>
     <t>Issue Type</t>
   </si>
@@ -3492,7 +3492,7 @@
   <dimension ref="B1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3835,7 +3835,9 @@
       <c r="E11" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>431</v>
+      </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="2"/>
